--- a/TNR_PREJDD/PREJDD.RT.EMP.xlsx
+++ b/TNR_PREJDD/PREJDD.RT.EMP.xlsx
@@ -10,7 +10,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="ayiYJ6ZgJcOOco/ZbB9Z6iuMaPOtGNPWfc0hFVSB5LY="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="MnZ45olrlIRJ32dtT+eilQkErcggswBto0Y0NHnrSn0="/>
     </ext>
   </extLst>
 </workbook>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="125">
   <si>
     <t>Date</t>
   </si>
@@ -127,9 +127,6 @@
   </si>
   <si>
     <t>$NULL</t>
-  </si>
-  <si>
-    <t>$ORDRE</t>
   </si>
   <si>
     <t>EMP.RO.ACT.004EMP.SRA.01.1</t>
@@ -2047,8 +2044,8 @@
       <c r="D2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>31</v>
+      <c r="E2" s="11">
+        <v>0.0</v>
       </c>
       <c r="F2" s="11">
         <v>1.0</v>
@@ -2058,26 +2055,26 @@
         <v>EMP.RO.ACT.004EMP.SRA.01.1....</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I2" s="15" t="str">
         <f t="shared" ref="I2:I34" si="2">CONCATENATE(H2,REPT(".",30-LEN(H2)))</f>
         <v>EMP.RO.ACT.004EMP.SRA.01.1....</v>
       </c>
       <c r="J2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="14" t="s">
         <v>33</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>34</v>
       </c>
       <c r="M2" s="14" t="s">
         <v>30</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O2" s="14" t="s">
         <v>30</v>
@@ -2089,16 +2086,16 @@
         <v>30</v>
       </c>
       <c r="R2" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S2" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T2" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U2" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -2114,8 +2111,8 @@
       <c r="D3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>31</v>
+      <c r="E3" s="11">
+        <v>1.0</v>
       </c>
       <c r="F3" s="11">
         <v>1.0</v>
@@ -2125,26 +2122,26 @@
         <v>EMP.RO.ACT.004EMP.SRA.01.2....</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I3" s="15" t="str">
         <f t="shared" si="2"/>
         <v>EMP.RO.ACT.004EMP.SRA.01.2....</v>
       </c>
       <c r="J3" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="14" t="s">
         <v>33</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>34</v>
       </c>
       <c r="M3" s="14" t="s">
         <v>30</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O3" s="14" t="s">
         <v>30</v>
@@ -2156,21 +2153,21 @@
         <v>30</v>
       </c>
       <c r="R3" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S3" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T3" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U3" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="11">
         <v>1003.0</v>
@@ -2181,8 +2178,8 @@
       <c r="D4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>31</v>
+      <c r="E4" s="11">
+        <v>2.0</v>
       </c>
       <c r="F4" s="11">
         <v>1.0</v>
@@ -2192,26 +2189,26 @@
         <v>EMP.RO.ACT.004EMP.SRM.01.1....</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I4" s="15" t="str">
         <f t="shared" si="2"/>
         <v>EMP.RO.ACT.004EMP.SRM.01.1....</v>
       </c>
       <c r="J4" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="14" t="s">
         <v>33</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>34</v>
       </c>
       <c r="M4" s="14" t="s">
         <v>30</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O4" s="14" t="s">
         <v>30</v>
@@ -2223,21 +2220,21 @@
         <v>30</v>
       </c>
       <c r="R4" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S4" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U4" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="11">
         <v>1004.0</v>
@@ -2248,8 +2245,8 @@
       <c r="D5" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>31</v>
+      <c r="E5" s="11">
+        <v>3.0</v>
       </c>
       <c r="F5" s="11">
         <v>1.0</v>
@@ -2259,26 +2256,26 @@
         <v>EMP.RO.ACT.004EMP.SRM.01.2....</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I5" s="15" t="str">
         <f t="shared" si="2"/>
         <v>EMP.RO.ACT.004EMP.SRM.01.2....</v>
       </c>
       <c r="J5" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="14" t="s">
         <v>33</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>34</v>
       </c>
       <c r="M5" s="14" t="s">
         <v>30</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O5" s="14" t="s">
         <v>30</v>
@@ -2290,21 +2287,21 @@
         <v>30</v>
       </c>
       <c r="R5" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S5" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T5" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="11">
         <v>1005.0</v>
@@ -2315,8 +2312,8 @@
       <c r="D6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>31</v>
+      <c r="E6" s="11">
+        <v>4.0</v>
       </c>
       <c r="F6" s="11">
         <v>1.0</v>
@@ -2326,26 +2323,26 @@
         <v>EMP.RO.ACT.004EMP.SRS.01.1....</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I6" s="15" t="str">
         <f t="shared" si="2"/>
         <v>EMP.RO.ACT.004EMP.SRS.01.1....</v>
       </c>
       <c r="J6" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="14" t="s">
         <v>33</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>34</v>
       </c>
       <c r="M6" s="14" t="s">
         <v>30</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O6" s="14" t="s">
         <v>30</v>
@@ -2357,21 +2354,21 @@
         <v>30</v>
       </c>
       <c r="R6" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S6" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" s="11">
         <v>1006.0</v>
@@ -2382,8 +2379,8 @@
       <c r="D7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>31</v>
+      <c r="E7" s="11">
+        <v>5.0</v>
       </c>
       <c r="F7" s="11">
         <v>1.0</v>
@@ -2393,26 +2390,26 @@
         <v>EMP.RO.ACT.004EMP.SRS.01.2....</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I7" s="15" t="str">
         <f t="shared" si="2"/>
         <v>EMP.RO.ACT.004EMP.SRS.01.2....</v>
       </c>
       <c r="J7" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="14" t="s">
         <v>33</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>34</v>
       </c>
       <c r="M7" s="14" t="s">
         <v>30</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O7" s="14" t="s">
         <v>30</v>
@@ -2424,21 +2421,21 @@
         <v>30</v>
       </c>
       <c r="R7" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S7" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T7" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U7" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" s="11">
         <v>1007.0</v>
@@ -2449,8 +2446,8 @@
       <c r="D8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>31</v>
+      <c r="E8" s="11">
+        <v>6.0</v>
       </c>
       <c r="F8" s="11">
         <v>1.0</v>
@@ -2460,26 +2457,26 @@
         <v>EMP.RO.ACT.004EMP.SRL.01......</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I8" s="15" t="str">
         <f t="shared" si="2"/>
         <v>EMP.RO.ACT.004EMP.SRL.01......</v>
       </c>
       <c r="J8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="14" t="s">
         <v>33</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>34</v>
       </c>
       <c r="M8" s="14" t="s">
         <v>30</v>
       </c>
       <c r="N8" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O8" s="14" t="s">
         <v>30</v>
@@ -2491,21 +2488,21 @@
         <v>30</v>
       </c>
       <c r="R8" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S8" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T8" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U8" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" s="11">
         <v>1008.0</v>
@@ -2516,8 +2513,8 @@
       <c r="D9" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>31</v>
+      <c r="E9" s="11">
+        <v>7.0</v>
       </c>
       <c r="F9" s="11">
         <v>1.0</v>
@@ -2527,26 +2524,26 @@
         <v>EMP.RT.MAT.001.CRE.01.........</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I9" s="15" t="str">
         <f t="shared" si="2"/>
         <v>EMP.RT.MAT.001.CRE.01.........</v>
       </c>
       <c r="J9" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="14" t="s">
         <v>33</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>34</v>
       </c>
       <c r="M9" s="14" t="s">
         <v>30</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O9" s="14" t="s">
         <v>30</v>
@@ -2558,21 +2555,21 @@
         <v>30</v>
       </c>
       <c r="R9" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S9" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T9" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U9" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" s="11">
         <v>1009.0</v>
@@ -2583,8 +2580,8 @@
       <c r="D10" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>31</v>
+      <c r="E10" s="11">
+        <v>8.0</v>
       </c>
       <c r="F10" s="11">
         <v>1.0</v>
@@ -2594,26 +2591,26 @@
         <v>EMP.RT.MAT.001.CRE.02.........</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I10" s="15" t="str">
         <f t="shared" si="2"/>
         <v>EMP.RT.MAT.001.CRE.02.........</v>
       </c>
       <c r="J10" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="14" t="s">
         <v>33</v>
-      </c>
-      <c r="K10" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>34</v>
       </c>
       <c r="M10" s="14" t="s">
         <v>30</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O10" s="14" t="s">
         <v>30</v>
@@ -2625,21 +2622,21 @@
         <v>30</v>
       </c>
       <c r="R10" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S10" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T10" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U10" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" s="11">
         <v>1010.0</v>
@@ -2650,8 +2647,8 @@
       <c r="D11" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>31</v>
+      <c r="E11" s="11">
+        <v>9.0</v>
       </c>
       <c r="F11" s="11">
         <v>1.0</v>
@@ -2661,26 +2658,26 @@
         <v>EMP.RT.MAT.001.CRE.03.........</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I11" s="15" t="str">
         <f t="shared" si="2"/>
         <v>EMP.RT.MAT.001.CRE.03.........</v>
       </c>
       <c r="J11" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" s="14" t="s">
         <v>33</v>
-      </c>
-      <c r="K11" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="L11" s="14" t="s">
-        <v>34</v>
       </c>
       <c r="M11" s="14" t="s">
         <v>30</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O11" s="14" t="s">
         <v>30</v>
@@ -2692,21 +2689,21 @@
         <v>30</v>
       </c>
       <c r="R11" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S11" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T11" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U11" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" s="11">
         <v>1011.0</v>
@@ -2717,8 +2714,8 @@
       <c r="D12" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>31</v>
+      <c r="E12" s="11">
+        <v>10.0</v>
       </c>
       <c r="F12" s="11">
         <v>1.0</v>
@@ -2728,26 +2725,26 @@
         <v>EMP.RT.MAT.001.CRE.04.........</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I12" s="15" t="str">
         <f t="shared" si="2"/>
         <v>EMP.RT.MAT.001.CRE.04.........</v>
       </c>
       <c r="J12" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="14" t="s">
         <v>33</v>
-      </c>
-      <c r="K12" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="L12" s="14" t="s">
-        <v>34</v>
       </c>
       <c r="M12" s="14" t="s">
         <v>30</v>
       </c>
       <c r="N12" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O12" s="14" t="s">
         <v>30</v>
@@ -2759,21 +2756,21 @@
         <v>30</v>
       </c>
       <c r="R12" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S12" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T12" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U12" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13" s="11">
         <v>1012.0</v>
@@ -2784,8 +2781,8 @@
       <c r="D13" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>31</v>
+      <c r="E13" s="11">
+        <v>11.0</v>
       </c>
       <c r="F13" s="11">
         <v>1.0</v>
@@ -2795,26 +2792,26 @@
         <v>EMP.RT.MAT.001.CRE.05.........</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I13" s="15" t="str">
         <f t="shared" si="2"/>
         <v>EMP.RT.MAT.001.CRE.05.........</v>
       </c>
       <c r="J13" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" s="14" t="s">
         <v>33</v>
-      </c>
-      <c r="K13" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="L13" s="14" t="s">
-        <v>34</v>
       </c>
       <c r="M13" s="14" t="s">
         <v>30</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O13" s="14" t="s">
         <v>30</v>
@@ -2826,21 +2823,21 @@
         <v>30</v>
       </c>
       <c r="R13" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S13" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U13" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14" s="11">
         <v>1013.0</v>
@@ -2851,8 +2848,8 @@
       <c r="D14" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>31</v>
+      <c r="E14" s="11">
+        <v>12.0</v>
       </c>
       <c r="F14" s="11">
         <v>1.0</v>
@@ -2862,26 +2859,26 @@
         <v>EMP.RT.MAT.001.CRE.06.........</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I14" s="15" t="str">
         <f t="shared" si="2"/>
         <v>EMP.RT.MAT.001.CRE.06.........</v>
       </c>
       <c r="J14" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" s="14" t="s">
         <v>33</v>
-      </c>
-      <c r="K14" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="L14" s="14" t="s">
-        <v>34</v>
       </c>
       <c r="M14" s="14" t="s">
         <v>30</v>
       </c>
       <c r="N14" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O14" s="14" t="s">
         <v>30</v>
@@ -2893,21 +2890,21 @@
         <v>30</v>
       </c>
       <c r="R14" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S14" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U14" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B15" s="11">
         <v>1014.0</v>
@@ -2918,8 +2915,8 @@
       <c r="D15" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="11" t="s">
-        <v>31</v>
+      <c r="E15" s="11">
+        <v>13.0</v>
       </c>
       <c r="F15" s="11">
         <v>1.0</v>
@@ -2929,26 +2926,26 @@
         <v>EMP.RT.MAT.001.CRE.07.........</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I15" s="15" t="str">
         <f t="shared" si="2"/>
         <v>EMP.RT.MAT.001.CRE.07.........</v>
       </c>
       <c r="J15" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L15" s="14" t="s">
         <v>33</v>
-      </c>
-      <c r="K15" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="L15" s="14" t="s">
-        <v>34</v>
       </c>
       <c r="M15" s="14" t="s">
         <v>30</v>
       </c>
       <c r="N15" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O15" s="14" t="s">
         <v>30</v>
@@ -2960,21 +2957,21 @@
         <v>30</v>
       </c>
       <c r="R15" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S15" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T15" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U15" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B16" s="11">
         <v>1015.0</v>
@@ -2985,8 +2982,8 @@
       <c r="D16" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="11" t="s">
-        <v>31</v>
+      <c r="E16" s="11">
+        <v>14.0</v>
       </c>
       <c r="F16" s="11">
         <v>1.0</v>
@@ -2996,26 +2993,26 @@
         <v>EMP.RT.MAT.001.LEC.01.........</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I16" s="15" t="str">
         <f t="shared" si="2"/>
         <v>EMP.RT.MAT.001.LEC.01.........</v>
       </c>
       <c r="J16" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" s="14" t="s">
         <v>33</v>
-      </c>
-      <c r="K16" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="L16" s="14" t="s">
-        <v>34</v>
       </c>
       <c r="M16" s="14" t="s">
         <v>30</v>
       </c>
       <c r="N16" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O16" s="14" t="s">
         <v>30</v>
@@ -3027,21 +3024,21 @@
         <v>30</v>
       </c>
       <c r="R16" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S16" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T16" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U16" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B17" s="11">
         <v>1016.0</v>
@@ -3052,8 +3049,8 @@
       <c r="D17" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="11" t="s">
-        <v>31</v>
+      <c r="E17" s="11">
+        <v>15.0</v>
       </c>
       <c r="F17" s="11">
         <v>1.0</v>
@@ -3063,26 +3060,26 @@
         <v>EMP.UPD.RT.MAT.001.MAJ.01.....</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I17" s="15" t="str">
         <f t="shared" si="2"/>
         <v>EMP.UPD.RT.MAT.001.MAJ.01.....</v>
       </c>
       <c r="J17" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L17" s="14" t="s">
         <v>33</v>
-      </c>
-      <c r="K17" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="L17" s="14" t="s">
-        <v>34</v>
       </c>
       <c r="M17" s="14" t="s">
         <v>30</v>
       </c>
       <c r="N17" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O17" s="14" t="s">
         <v>30</v>
@@ -3094,21 +3091,21 @@
         <v>30</v>
       </c>
       <c r="R17" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S17" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T17" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U17" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B18" s="11">
         <v>1017.0</v>
@@ -3119,8 +3116,8 @@
       <c r="D18" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="11" t="s">
-        <v>31</v>
+      <c r="E18" s="11">
+        <v>16.0</v>
       </c>
       <c r="F18" s="11">
         <v>1.0</v>
@@ -3130,26 +3127,26 @@
         <v>EMP.RT.MAT.001.MAJ.01.........</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I18" s="15" t="str">
         <f t="shared" si="2"/>
         <v>EMP.RT.MAT.001.MAJ.01.........</v>
       </c>
       <c r="J18" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18" s="14" t="s">
         <v>33</v>
-      </c>
-      <c r="K18" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="L18" s="14" t="s">
-        <v>34</v>
       </c>
       <c r="M18" s="14" t="s">
         <v>30</v>
       </c>
       <c r="N18" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O18" s="14" t="s">
         <v>30</v>
@@ -3161,21 +3158,21 @@
         <v>30</v>
       </c>
       <c r="R18" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S18" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T18" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U18" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B19" s="11">
         <v>1018.0</v>
@@ -3186,8 +3183,8 @@
       <c r="D19" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="11" t="s">
-        <v>31</v>
+      <c r="E19" s="11">
+        <v>17.0</v>
       </c>
       <c r="F19" s="11">
         <v>1.0</v>
@@ -3197,26 +3194,26 @@
         <v>EMP.RT.MAT.001.SUP.01.........</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I19" s="15" t="str">
         <f t="shared" si="2"/>
         <v>EMP.RT.MAT.001.SUP.01.........</v>
       </c>
       <c r="J19" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19" s="14" t="s">
         <v>33</v>
-      </c>
-      <c r="K19" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="L19" s="14" t="s">
-        <v>34</v>
       </c>
       <c r="M19" s="14" t="s">
         <v>30</v>
       </c>
       <c r="N19" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O19" s="14" t="s">
         <v>30</v>
@@ -3228,21 +3225,21 @@
         <v>30</v>
       </c>
       <c r="R19" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S19" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T19" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U19" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B20" s="11">
         <v>1019.0</v>
@@ -3253,8 +3250,8 @@
       <c r="D20" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="11" t="s">
-        <v>31</v>
+      <c r="E20" s="11">
+        <v>18.0</v>
       </c>
       <c r="F20" s="11">
         <v>1.0</v>
@@ -3264,26 +3261,26 @@
         <v>EMP.RT.MAT.001.REC.01.........</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I20" s="15" t="str">
         <f t="shared" si="2"/>
         <v>EMP.RT.MAT.001.REC.01.........</v>
       </c>
       <c r="J20" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L20" s="14" t="s">
         <v>33</v>
-      </c>
-      <c r="K20" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="L20" s="14" t="s">
-        <v>34</v>
       </c>
       <c r="M20" s="14" t="s">
         <v>30</v>
       </c>
       <c r="N20" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O20" s="14" t="s">
         <v>30</v>
@@ -3295,21 +3292,21 @@
         <v>30</v>
       </c>
       <c r="R20" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S20" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T20" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U20" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B21" s="11">
         <v>1020.0</v>
@@ -3320,8 +3317,8 @@
       <c r="D21" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="11" t="s">
-        <v>31</v>
+      <c r="E21" s="11">
+        <v>19.0</v>
       </c>
       <c r="F21" s="11">
         <v>1.0</v>
@@ -3331,26 +3328,26 @@
         <v>EMP.TR.BTR.001.CRE.01.........</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I21" s="15" t="str">
         <f t="shared" si="2"/>
         <v>EMP.TR.BTR.001.CRE.01.........</v>
       </c>
       <c r="J21" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L21" s="14" t="s">
         <v>33</v>
-      </c>
-      <c r="K21" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="L21" s="14" t="s">
-        <v>34</v>
       </c>
       <c r="M21" s="14" t="s">
         <v>30</v>
       </c>
       <c r="N21" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O21" s="14" t="s">
         <v>30</v>
@@ -3362,21 +3359,21 @@
         <v>30</v>
       </c>
       <c r="R21" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S21" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T21" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U21" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B22" s="11">
         <v>1021.0</v>
@@ -3387,8 +3384,8 @@
       <c r="D22" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="11" t="s">
-        <v>31</v>
+      <c r="E22" s="11">
+        <v>20.0</v>
       </c>
       <c r="F22" s="11">
         <v>1.0</v>
@@ -3398,26 +3395,26 @@
         <v>EMP.TR.BTR.001.CRE.02.........</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I22" s="15" t="str">
         <f t="shared" si="2"/>
         <v>EMP.TR.BTR.001.CRE.02.........</v>
       </c>
       <c r="J22" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K22" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L22" s="14" t="s">
         <v>33</v>
-      </c>
-      <c r="K22" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="L22" s="14" t="s">
-        <v>34</v>
       </c>
       <c r="M22" s="14" t="s">
         <v>30</v>
       </c>
       <c r="N22" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O22" s="14" t="s">
         <v>30</v>
@@ -3429,21 +3426,21 @@
         <v>30</v>
       </c>
       <c r="R22" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S22" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T22" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U22" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B23" s="11">
         <v>1022.0</v>
@@ -3454,8 +3451,8 @@
       <c r="D23" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="11" t="s">
-        <v>31</v>
+      <c r="E23" s="11">
+        <v>21.0</v>
       </c>
       <c r="F23" s="11">
         <v>1.0</v>
@@ -3465,26 +3462,26 @@
         <v>EMP.TR.BTR.001.CRE.03.........</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I23" s="15" t="str">
         <f t="shared" si="2"/>
         <v>EMP.TR.BTR.001.CRE.03.........</v>
       </c>
       <c r="J23" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L23" s="14" t="s">
         <v>33</v>
-      </c>
-      <c r="K23" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="L23" s="14" t="s">
-        <v>34</v>
       </c>
       <c r="M23" s="14" t="s">
         <v>30</v>
       </c>
       <c r="N23" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O23" s="14" t="s">
         <v>30</v>
@@ -3496,21 +3493,21 @@
         <v>30</v>
       </c>
       <c r="R23" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S23" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T23" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U23" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B24" s="11">
         <v>1023.0</v>
@@ -3521,8 +3518,8 @@
       <c r="D24" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="11" t="s">
-        <v>31</v>
+      <c r="E24" s="11">
+        <v>22.0</v>
       </c>
       <c r="F24" s="11">
         <v>1.0</v>
@@ -3532,26 +3529,26 @@
         <v>EMP.TR.BTR.001.LEC.01.........</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I24" s="15" t="str">
         <f t="shared" si="2"/>
         <v>EMP.TR.BTR.001.LEC.01.........</v>
       </c>
       <c r="J24" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K24" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L24" s="14" t="s">
         <v>33</v>
-      </c>
-      <c r="K24" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="L24" s="14" t="s">
-        <v>34</v>
       </c>
       <c r="M24" s="14" t="s">
         <v>30</v>
       </c>
       <c r="N24" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O24" s="14" t="s">
         <v>30</v>
@@ -3563,21 +3560,21 @@
         <v>30</v>
       </c>
       <c r="R24" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S24" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T24" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U24" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B25" s="11">
         <v>1024.0</v>
@@ -3588,8 +3585,8 @@
       <c r="D25" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="11" t="s">
-        <v>31</v>
+      <c r="E25" s="11">
+        <v>23.0</v>
       </c>
       <c r="F25" s="11">
         <v>1.0</v>
@@ -3599,26 +3596,26 @@
         <v>EMP.UPD.TR.BTR.001.MAJ.01.....</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I25" s="15" t="str">
         <f t="shared" si="2"/>
         <v>EMP.UPD.TR.BTR.001.MAJ.01.....</v>
       </c>
       <c r="J25" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K25" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L25" s="14" t="s">
         <v>33</v>
-      </c>
-      <c r="K25" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="L25" s="14" t="s">
-        <v>34</v>
       </c>
       <c r="M25" s="14" t="s">
         <v>30</v>
       </c>
       <c r="N25" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O25" s="14" t="s">
         <v>30</v>
@@ -3630,21 +3627,21 @@
         <v>30</v>
       </c>
       <c r="R25" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S25" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T25" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U25" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B26" s="11">
         <v>1025.0</v>
@@ -3655,8 +3652,8 @@
       <c r="D26" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="11" t="s">
-        <v>31</v>
+      <c r="E26" s="11">
+        <v>24.0</v>
       </c>
       <c r="F26" s="11">
         <v>1.0</v>
@@ -3666,26 +3663,26 @@
         <v>EMP.TR.BTR.001.MAJ.01.........</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I26" s="15" t="str">
         <f t="shared" si="2"/>
         <v>EMP.TR.BTR.001.MAJ.01.........</v>
       </c>
       <c r="J26" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K26" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L26" s="14" t="s">
         <v>33</v>
-      </c>
-      <c r="K26" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="L26" s="14" t="s">
-        <v>34</v>
       </c>
       <c r="M26" s="14" t="s">
         <v>30</v>
       </c>
       <c r="N26" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O26" s="14" t="s">
         <v>30</v>
@@ -3697,21 +3694,21 @@
         <v>30</v>
       </c>
       <c r="R26" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S26" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T26" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U26" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B27" s="11">
         <v>1026.0</v>
@@ -3722,8 +3719,8 @@
       <c r="D27" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="11" t="s">
-        <v>31</v>
+      <c r="E27" s="11">
+        <v>25.0</v>
       </c>
       <c r="F27" s="11">
         <v>1.0</v>
@@ -3733,26 +3730,26 @@
         <v>EMP.TR.BTR.001.SUP.01.........</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I27" s="15" t="str">
         <f t="shared" si="2"/>
         <v>EMP.TR.BTR.001.SUP.01.........</v>
       </c>
       <c r="J27" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K27" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L27" s="14" t="s">
         <v>33</v>
-      </c>
-      <c r="K27" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="L27" s="14" t="s">
-        <v>34</v>
       </c>
       <c r="M27" s="14" t="s">
         <v>30</v>
       </c>
       <c r="N27" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O27" s="14" t="s">
         <v>30</v>
@@ -3764,21 +3761,21 @@
         <v>30</v>
       </c>
       <c r="R27" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S27" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T27" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U27" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B28" s="11">
         <v>1027.0</v>
@@ -3789,8 +3786,8 @@
       <c r="D28" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="11" t="s">
-        <v>31</v>
+      <c r="E28" s="11">
+        <v>26.0</v>
       </c>
       <c r="F28" s="11">
         <v>1.0</v>
@@ -3800,26 +3797,26 @@
         <v>EMP.TR.BTR.001.REC.01.........</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I28" s="15" t="str">
         <f t="shared" si="2"/>
         <v>EMP.TR.BTR.001.REC.01.........</v>
       </c>
       <c r="J28" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K28" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L28" s="14" t="s">
         <v>33</v>
-      </c>
-      <c r="K28" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="L28" s="14" t="s">
-        <v>34</v>
       </c>
       <c r="M28" s="14" t="s">
         <v>30</v>
       </c>
       <c r="N28" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O28" s="14" t="s">
         <v>30</v>
@@ -3831,21 +3828,21 @@
         <v>30</v>
       </c>
       <c r="R28" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S28" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T28" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U28" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B29" s="11">
         <v>1028.0</v>
@@ -3856,8 +3853,8 @@
       <c r="D29" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="11" t="s">
-        <v>31</v>
+      <c r="E29" s="11">
+        <v>27.0</v>
       </c>
       <c r="F29" s="11">
         <v>1.0</v>
@@ -3867,26 +3864,26 @@
         <v>EMP.RT.EQU.001.CRE.01.........</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I29" s="15" t="str">
         <f t="shared" si="2"/>
         <v>EMP.RT.EQU.001.CRE.01.........</v>
       </c>
       <c r="J29" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K29" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L29" s="14" t="s">
         <v>33</v>
-      </c>
-      <c r="K29" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="L29" s="14" t="s">
-        <v>34</v>
       </c>
       <c r="M29" s="14" t="s">
         <v>30</v>
       </c>
       <c r="N29" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O29" s="14" t="s">
         <v>30</v>
@@ -3898,21 +3895,21 @@
         <v>30</v>
       </c>
       <c r="R29" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S29" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T29" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U29" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B30" s="11">
         <v>1029.0</v>
@@ -3923,8 +3920,8 @@
       <c r="D30" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="11" t="s">
-        <v>31</v>
+      <c r="E30" s="11">
+        <v>28.0</v>
       </c>
       <c r="F30" s="11">
         <v>1.0</v>
@@ -3934,26 +3931,26 @@
         <v>EMP.RT.EQU.001.LEC.01.........</v>
       </c>
       <c r="H30" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I30" s="15" t="str">
         <f t="shared" si="2"/>
         <v>EMP.RT.EQU.001.LEC.01.........</v>
       </c>
       <c r="J30" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K30" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L30" s="14" t="s">
         <v>33</v>
-      </c>
-      <c r="K30" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="L30" s="14" t="s">
-        <v>34</v>
       </c>
       <c r="M30" s="14" t="s">
         <v>30</v>
       </c>
       <c r="N30" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O30" s="14" t="s">
         <v>30</v>
@@ -3965,21 +3962,21 @@
         <v>30</v>
       </c>
       <c r="R30" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S30" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T30" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U30" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B31" s="11">
         <v>1030.0</v>
@@ -3990,8 +3987,8 @@
       <c r="D31" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="11" t="s">
-        <v>31</v>
+      <c r="E31" s="11">
+        <v>29.0</v>
       </c>
       <c r="F31" s="11">
         <v>1.0</v>
@@ -4001,26 +3998,26 @@
         <v>EMP.UPD.RT.EQU.001.MAJ.01.....</v>
       </c>
       <c r="H31" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I31" s="15" t="str">
         <f t="shared" si="2"/>
         <v>EMP.UPD.RT.EQU.001.MAJ.01.....</v>
       </c>
       <c r="J31" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K31" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L31" s="14" t="s">
         <v>33</v>
-      </c>
-      <c r="K31" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="L31" s="14" t="s">
-        <v>34</v>
       </c>
       <c r="M31" s="14" t="s">
         <v>30</v>
       </c>
       <c r="N31" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O31" s="14" t="s">
         <v>30</v>
@@ -4032,21 +4029,21 @@
         <v>30</v>
       </c>
       <c r="R31" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S31" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T31" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U31" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B32" s="11">
         <v>1031.0</v>
@@ -4057,8 +4054,8 @@
       <c r="D32" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="11" t="s">
-        <v>31</v>
+      <c r="E32" s="11">
+        <v>30.0</v>
       </c>
       <c r="F32" s="11">
         <v>1.0</v>
@@ -4068,26 +4065,26 @@
         <v>EMP.RT.EQU.001.MAJ.01.........</v>
       </c>
       <c r="H32" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I32" s="15" t="str">
         <f t="shared" si="2"/>
         <v>EMP.RT.EQU.001.MAJ.01.........</v>
       </c>
       <c r="J32" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K32" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L32" s="14" t="s">
         <v>33</v>
-      </c>
-      <c r="K32" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="L32" s="14" t="s">
-        <v>34</v>
       </c>
       <c r="M32" s="14" t="s">
         <v>30</v>
       </c>
       <c r="N32" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O32" s="14" t="s">
         <v>30</v>
@@ -4099,21 +4096,21 @@
         <v>30</v>
       </c>
       <c r="R32" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S32" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T32" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U32" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B33" s="11">
         <v>1032.0</v>
@@ -4124,8 +4121,8 @@
       <c r="D33" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="11" t="s">
-        <v>31</v>
+      <c r="E33" s="11">
+        <v>31.0</v>
       </c>
       <c r="F33" s="11">
         <v>1.0</v>
@@ -4135,26 +4132,26 @@
         <v>EMP.RT.EQU.001.SUP.01.........</v>
       </c>
       <c r="H33" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I33" s="15" t="str">
         <f t="shared" si="2"/>
         <v>EMP.RT.EQU.001.SUP.01.........</v>
       </c>
       <c r="J33" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K33" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L33" s="14" t="s">
         <v>33</v>
-      </c>
-      <c r="K33" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="L33" s="14" t="s">
-        <v>34</v>
       </c>
       <c r="M33" s="14" t="s">
         <v>30</v>
       </c>
       <c r="N33" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O33" s="14" t="s">
         <v>30</v>
@@ -4166,21 +4163,21 @@
         <v>30</v>
       </c>
       <c r="R33" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S33" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T33" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U33" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B34" s="11">
         <v>1033.0</v>
@@ -4191,8 +4188,8 @@
       <c r="D34" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E34" s="11" t="s">
-        <v>31</v>
+      <c r="E34" s="11">
+        <v>32.0</v>
       </c>
       <c r="F34" s="11">
         <v>1.0</v>
@@ -4202,26 +4199,26 @@
         <v>EMP.RT.EQU.001.REC.01.........</v>
       </c>
       <c r="H34" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I34" s="15" t="str">
         <f t="shared" si="2"/>
         <v>EMP.RT.EQU.001.REC.01.........</v>
       </c>
       <c r="J34" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K34" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L34" s="14" t="s">
         <v>33</v>
-      </c>
-      <c r="K34" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="L34" s="14" t="s">
-        <v>34</v>
       </c>
       <c r="M34" s="14" t="s">
         <v>30</v>
       </c>
       <c r="N34" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O34" s="14" t="s">
         <v>30</v>
@@ -4233,16 +4230,16 @@
         <v>30</v>
       </c>
       <c r="R34" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S34" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T34" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U34" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
@@ -17475,7 +17472,7 @@
       <c r="T979" s="22"/>
       <c r="U979" s="22"/>
     </row>
-    <row r="980" ht="15.75" customHeight="1">
+    <row r="980">
       <c r="A980" s="22"/>
       <c r="B980" s="22"/>
       <c r="C980" s="22"/>
@@ -17489,7 +17486,7 @@
       <c r="T980" s="22"/>
       <c r="U980" s="22"/>
     </row>
-    <row r="981" ht="15.75" customHeight="1">
+    <row r="981">
       <c r="A981" s="22"/>
       <c r="B981" s="22"/>
       <c r="C981" s="22"/>
@@ -17503,7 +17500,7 @@
       <c r="T981" s="22"/>
       <c r="U981" s="22"/>
     </row>
-    <row r="982" ht="15.75" customHeight="1">
+    <row r="982">
       <c r="A982" s="22"/>
       <c r="B982" s="22"/>
       <c r="C982" s="22"/>
@@ -17517,7 +17514,7 @@
       <c r="T982" s="22"/>
       <c r="U982" s="22"/>
     </row>
-    <row r="983" ht="15.75" customHeight="1">
+    <row r="983">
       <c r="A983" s="22"/>
       <c r="B983" s="22"/>
       <c r="C983" s="22"/>
@@ -17531,7 +17528,7 @@
       <c r="T983" s="22"/>
       <c r="U983" s="22"/>
     </row>
-    <row r="984" ht="15.75" customHeight="1">
+    <row r="984">
       <c r="A984" s="22"/>
       <c r="B984" s="22"/>
       <c r="C984" s="22"/>
@@ -17545,7 +17542,7 @@
       <c r="T984" s="22"/>
       <c r="U984" s="22"/>
     </row>
-    <row r="985" ht="15.75" customHeight="1">
+    <row r="985">
       <c r="A985" s="22"/>
       <c r="B985" s="22"/>
       <c r="C985" s="22"/>
@@ -17559,7 +17556,7 @@
       <c r="T985" s="22"/>
       <c r="U985" s="22"/>
     </row>
-    <row r="986" ht="15.75" customHeight="1">
+    <row r="986">
       <c r="A986" s="22"/>
       <c r="B986" s="22"/>
       <c r="C986" s="22"/>
@@ -17573,7 +17570,7 @@
       <c r="T986" s="22"/>
       <c r="U986" s="22"/>
     </row>
-    <row r="987" ht="15.75" customHeight="1">
+    <row r="987">
       <c r="A987" s="22"/>
       <c r="B987" s="22"/>
       <c r="C987" s="22"/>
@@ -17629,118 +17626,6 @@
       <c r="T990" s="22"/>
       <c r="U990" s="22"/>
     </row>
-    <row r="991">
-      <c r="A991" s="22"/>
-      <c r="B991" s="22"/>
-      <c r="C991" s="22"/>
-      <c r="H991" s="22"/>
-      <c r="I991" s="22"/>
-      <c r="J991" s="22"/>
-      <c r="K991" s="22"/>
-      <c r="L991" s="22"/>
-      <c r="M991" s="22"/>
-      <c r="O991" s="22"/>
-      <c r="T991" s="22"/>
-      <c r="U991" s="22"/>
-    </row>
-    <row r="992">
-      <c r="A992" s="22"/>
-      <c r="B992" s="22"/>
-      <c r="C992" s="22"/>
-      <c r="H992" s="22"/>
-      <c r="I992" s="22"/>
-      <c r="J992" s="22"/>
-      <c r="K992" s="22"/>
-      <c r="L992" s="22"/>
-      <c r="M992" s="22"/>
-      <c r="O992" s="22"/>
-      <c r="T992" s="22"/>
-      <c r="U992" s="22"/>
-    </row>
-    <row r="993">
-      <c r="A993" s="22"/>
-      <c r="B993" s="22"/>
-      <c r="C993" s="22"/>
-      <c r="H993" s="22"/>
-      <c r="I993" s="22"/>
-      <c r="J993" s="22"/>
-      <c r="K993" s="22"/>
-      <c r="L993" s="22"/>
-      <c r="M993" s="22"/>
-      <c r="O993" s="22"/>
-      <c r="T993" s="22"/>
-      <c r="U993" s="22"/>
-    </row>
-    <row r="994">
-      <c r="A994" s="22"/>
-      <c r="B994" s="22"/>
-      <c r="C994" s="22"/>
-      <c r="H994" s="22"/>
-      <c r="I994" s="22"/>
-      <c r="J994" s="22"/>
-      <c r="K994" s="22"/>
-      <c r="L994" s="22"/>
-      <c r="M994" s="22"/>
-      <c r="O994" s="22"/>
-      <c r="T994" s="22"/>
-      <c r="U994" s="22"/>
-    </row>
-    <row r="995">
-      <c r="A995" s="22"/>
-      <c r="B995" s="22"/>
-      <c r="C995" s="22"/>
-      <c r="H995" s="22"/>
-      <c r="I995" s="22"/>
-      <c r="J995" s="22"/>
-      <c r="K995" s="22"/>
-      <c r="L995" s="22"/>
-      <c r="M995" s="22"/>
-      <c r="O995" s="22"/>
-      <c r="T995" s="22"/>
-      <c r="U995" s="22"/>
-    </row>
-    <row r="996">
-      <c r="A996" s="22"/>
-      <c r="B996" s="22"/>
-      <c r="C996" s="22"/>
-      <c r="H996" s="22"/>
-      <c r="I996" s="22"/>
-      <c r="J996" s="22"/>
-      <c r="K996" s="22"/>
-      <c r="L996" s="22"/>
-      <c r="M996" s="22"/>
-      <c r="O996" s="22"/>
-      <c r="T996" s="22"/>
-      <c r="U996" s="22"/>
-    </row>
-    <row r="997">
-      <c r="A997" s="22"/>
-      <c r="B997" s="22"/>
-      <c r="C997" s="22"/>
-      <c r="H997" s="22"/>
-      <c r="I997" s="22"/>
-      <c r="J997" s="22"/>
-      <c r="K997" s="22"/>
-      <c r="L997" s="22"/>
-      <c r="M997" s="22"/>
-      <c r="O997" s="22"/>
-      <c r="T997" s="22"/>
-      <c r="U997" s="22"/>
-    </row>
-    <row r="998">
-      <c r="A998" s="22"/>
-      <c r="B998" s="22"/>
-      <c r="C998" s="22"/>
-      <c r="H998" s="22"/>
-      <c r="I998" s="22"/>
-      <c r="J998" s="22"/>
-      <c r="K998" s="22"/>
-      <c r="L998" s="22"/>
-      <c r="M998" s="22"/>
-      <c r="O998" s="22"/>
-      <c r="T998" s="22"/>
-      <c r="U998" s="22"/>
-    </row>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
